--- a/documents/TROY_Study Criteria.xlsx
+++ b/documents/TROY_Study Criteria.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC65DBD8-EB8B-4F42-8E7F-B6CBAC6026FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A437CD1A-4D05-6E4D-9533-E68AB65627BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13900" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LEADER" sheetId="2" r:id="rId1"/>
     <sheet name="DECLARE-TIMI 58" sheetId="3" r:id="rId2"/>
-    <sheet name="CANVAS" sheetId="5" r:id="rId3"/>
-    <sheet name="EMPA-REG OUTCOME" sheetId="4" r:id="rId4"/>
+    <sheet name="EMPA-REG OUTCOME" sheetId="4" r:id="rId3"/>
+    <sheet name="CANVAS" sheetId="5" r:id="rId4"/>
     <sheet name="CARMELINA" sheetId="7" r:id="rId5"/>
     <sheet name="TECOS" sheetId="8" r:id="rId6"/>
     <sheet name="SAVOR-TIMI 53" sheetId="9" r:id="rId7"/>
@@ -24,7 +24,7 @@
     <sheet name="STAR-RA" sheetId="17" r:id="rId14"/>
     <sheet name="ORAL" sheetId="16" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,9 +32,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1256,65 +1259,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Albuminuria (UACR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 30 mg/g creatinine or </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 30 μg/min [microgram albumin per minute] or </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 30 mg/24 h [milligram albumin per 24 hours] in two out of three unrelated spot urine or timed samples in the last 24 months prior to randomization)* AND previous macrovascular disease, defined as either one or more: </t>
-    </r>
-  </si>
-  <si>
     <t>Confirmed history of MI (&gt; 2 months prior to Visit 1)</t>
   </si>
   <si>
@@ -4747,6 +4691,66 @@
   </si>
   <si>
     <t>COHORT PHENOTYPE (DECLARE-TIMI 58)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Albuminuria (UACR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 30 mg/g creatinine or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 30 μg/min [microgram albumin per minute] or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 30 mg/24 h [milligram albumin per 24 hours] in two out of three unrelated spot urine or timed samples in the last 24 months prior to randomization)* AND previous macrovascular disease, defined as either one or more: </t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4983,6 +4987,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4998,7 +5003,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -5374,7 +5378,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" zoomScale="140" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
@@ -5385,100 +5391,100 @@
   <sheetData>
     <row r="3" spans="1:3" ht="18">
       <c r="A3" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18">
       <c r="A6" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>662</v>
+        <v>628</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>661</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="B8" s="22"/>
+        <v>629</v>
+      </c>
+      <c r="B8" s="23"/>
     </row>
     <row r="9" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A9" s="20" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A10" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A11" s="20" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A12" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>687</v>
+        <v>682</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A13" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>688</v>
+        <v>683</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A14" s="20" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A15" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>689</v>
+        <v>682</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A16" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>690</v>
+        <v>683</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18">
@@ -5678,38 +5684,38 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="15" customHeight="1">
-      <c r="A42" s="22">
+      <c r="A42" s="23">
         <v>4</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="22"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="3">
@@ -5819,103 +5825,103 @@
   <sheetData>
     <row r="3" spans="1:9" ht="18">
       <c r="A3" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18">
       <c r="A6" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>662</v>
+        <v>628</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>661</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="B8" s="25"/>
+        <v>629</v>
+      </c>
+      <c r="B8" s="26"/>
     </row>
     <row r="9" spans="1:9" ht="18">
       <c r="A9" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="4" customFormat="1" ht="18">
       <c r="A11" s="20" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="4" customFormat="1" ht="18">
       <c r="A12" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>717</v>
+        <v>682</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="4" customFormat="1" ht="18">
       <c r="A13" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>718</v>
+        <v>683</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="4" customFormat="1" ht="18">
       <c r="A14" s="20" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="4" customFormat="1" ht="18">
       <c r="A15" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>716</v>
+        <v>682</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="4" customFormat="1" ht="18">
       <c r="A16" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>719</v>
+        <v>683</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18">
@@ -5925,7 +5931,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5933,7 +5939,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5942,7 +5948,7 @@
         <v>5</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5951,7 +5957,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5960,7 +5966,7 @@
         <v>9</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17">
@@ -5970,7 +5976,7 @@
         <v>21</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5980,56 +5986,56 @@
         <v>23</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="C29" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -6037,7 +6043,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -6045,7 +6051,7 @@
         <v>5</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -6053,7 +6059,7 @@
         <v>7</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="18">
@@ -6063,7 +6069,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -6090,100 +6096,100 @@
   <sheetData>
     <row r="3" spans="1:3" ht="18">
       <c r="A3" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18">
       <c r="A6" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>626</v>
+        <v>628</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>625</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="B8" s="25"/>
+        <v>629</v>
+      </c>
+      <c r="B8" s="26"/>
     </row>
     <row r="9" spans="1:3" ht="18">
       <c r="A9" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A11" s="20" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A12" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>720</v>
+        <v>682</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A13" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>721</v>
+        <v>683</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A14" s="20" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A15" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>722</v>
+        <v>682</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A16" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>723</v>
+        <v>683</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18">
@@ -6196,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6204,7 +6210,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6212,7 +6218,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -6221,7 +6227,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -6230,13 +6236,13 @@
         <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3"/>
       <c r="B23" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -6244,7 +6250,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -6253,7 +6259,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -6262,7 +6268,7 @@
         <v>7</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -6271,7 +6277,7 @@
         <v>9</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -6280,7 +6286,7 @@
         <v>11</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -6288,7 +6294,7 @@
         <v>5</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -6296,7 +6302,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -6304,7 +6310,7 @@
         <v>7</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18">
@@ -6314,7 +6320,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -6322,7 +6328,7 @@
         <v>1</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -6330,7 +6336,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -6338,7 +6344,7 @@
         <v>3</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -6346,7 +6352,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -6354,7 +6360,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -6362,12 +6368,12 @@
         <v>6</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -6375,7 +6381,7 @@
         <v>7</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -6383,7 +6389,7 @@
         <v>8</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -6391,7 +6397,7 @@
         <v>5</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -6399,7 +6405,7 @@
         <v>7</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -6407,7 +6413,7 @@
         <v>9</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -6415,7 +6421,7 @@
         <v>11</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -6423,7 +6429,7 @@
         <v>13</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -6431,7 +6437,7 @@
         <v>9</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -6439,7 +6445,7 @@
         <v>10</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -6447,12 +6453,12 @@
         <v>11</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -6460,7 +6466,7 @@
         <v>12</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -6468,7 +6474,7 @@
         <v>13</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -6476,7 +6482,7 @@
         <v>14</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -6484,7 +6490,7 @@
         <v>15</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -6493,7 +6499,7 @@
         <v>5</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -6502,7 +6508,7 @@
         <v>7</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -6511,7 +6517,7 @@
         <v>9</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -6520,7 +6526,7 @@
         <v>11</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -6529,7 +6535,7 @@
         <v>13</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -6537,7 +6543,7 @@
         <v>16</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -6545,7 +6551,7 @@
         <v>17</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -6553,7 +6559,7 @@
         <v>18</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -6561,7 +6567,7 @@
         <v>19</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -6569,7 +6575,7 @@
         <v>20</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -6577,7 +6583,7 @@
         <v>21</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -6585,7 +6591,7 @@
         <v>22</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="13.25" customHeight="1">
@@ -6593,7 +6599,7 @@
         <v>23</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -6601,12 +6607,12 @@
         <v>24</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -6614,7 +6620,7 @@
         <v>25</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -6622,7 +6628,7 @@
         <v>26</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -6630,7 +6636,7 @@
         <v>27</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -6638,7 +6644,7 @@
         <v>28</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -6646,7 +6652,7 @@
         <v>29</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -6654,7 +6660,7 @@
         <v>30</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -6662,7 +6668,7 @@
         <v>31</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -6692,95 +6698,95 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18">
       <c r="A6" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>626</v>
+        <v>628</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>625</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="B8" s="25"/>
+        <v>629</v>
+      </c>
+      <c r="B8" s="26"/>
     </row>
     <row r="9" spans="1:3" ht="18">
       <c r="A9" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A11" s="20" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A12" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>724</v>
+        <v>682</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A13" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>725</v>
+        <v>683</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A14" s="20" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A15" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>726</v>
+        <v>682</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A16" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>727</v>
+        <v>683</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18">
@@ -6793,7 +6799,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6801,19 +6807,19 @@
         <v>2</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3"/>
       <c r="B20" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3"/>
       <c r="B21" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -6821,7 +6827,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -6830,7 +6836,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -6839,7 +6845,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -6848,7 +6854,7 @@
         <v>9</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -6857,7 +6863,7 @@
         <v>11</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -6866,7 +6872,7 @@
         <v>13</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -6874,19 +6880,19 @@
         <v>4</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3"/>
       <c r="B29" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3"/>
       <c r="B30" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -6894,7 +6900,7 @@
         <v>5</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="18">
@@ -6907,7 +6913,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -6915,7 +6921,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -6923,7 +6929,7 @@
         <v>3</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -6931,7 +6937,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -6939,7 +6945,7 @@
         <v>5</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -6947,7 +6953,7 @@
         <v>6</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -6955,7 +6961,7 @@
         <v>7</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -6963,7 +6969,7 @@
         <v>8</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -6971,7 +6977,7 @@
         <v>9</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -6979,7 +6985,7 @@
         <v>10</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -6987,7 +6993,7 @@
         <v>11</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -6995,7 +7001,7 @@
         <v>12</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -7003,7 +7009,7 @@
         <v>13</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -7011,7 +7017,7 @@
         <v>14</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -7019,7 +7025,7 @@
         <v>15</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -7027,7 +7033,7 @@
         <v>16</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -7035,7 +7041,7 @@
         <v>17</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -7043,7 +7049,7 @@
         <v>18</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -7051,7 +7057,7 @@
         <v>19</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -7059,7 +7065,7 @@
         <v>20</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -7067,7 +7073,7 @@
         <v>21</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -7075,7 +7081,7 @@
         <v>22</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -7083,7 +7089,7 @@
         <v>23</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -7091,7 +7097,7 @@
         <v>5</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -7099,7 +7105,7 @@
         <v>7</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -7107,7 +7113,7 @@
         <v>9</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -7115,7 +7121,7 @@
         <v>11</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>
@@ -7143,100 +7149,100 @@
   <sheetData>
     <row r="3" spans="1:3" ht="18">
       <c r="A3" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18">
       <c r="A6" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>626</v>
+        <v>628</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>625</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="B8" s="25"/>
+        <v>629</v>
+      </c>
+      <c r="B8" s="26"/>
     </row>
     <row r="9" spans="1:3" ht="18">
       <c r="A9" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A11" s="20" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A12" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>728</v>
+        <v>682</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A13" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>729</v>
+        <v>683</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A14" s="20" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A15" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>730</v>
+        <v>682</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A16" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>727</v>
+        <v>683</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18">
@@ -7249,7 +7255,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -7257,7 +7263,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -7265,7 +7271,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -7273,7 +7279,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18">
@@ -7286,7 +7292,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -7294,7 +7300,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -7302,7 +7308,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -7310,7 +7316,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -7318,7 +7324,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -7326,7 +7332,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -7334,7 +7340,7 @@
         <v>7</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -7342,7 +7348,7 @@
         <v>8</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -7350,7 +7356,7 @@
         <v>9</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -7358,7 +7364,7 @@
         <v>10</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -7367,7 +7373,7 @@
         <v>5</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -7376,7 +7382,7 @@
         <v>7</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -7385,7 +7391,7 @@
         <v>9</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -7393,7 +7399,7 @@
         <v>11</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -7401,7 +7407,7 @@
         <v>12</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -7409,7 +7415,7 @@
         <v>13</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -7417,7 +7423,7 @@
         <v>14</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -7425,7 +7431,7 @@
         <v>15</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -7433,7 +7439,7 @@
         <v>16</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -7441,7 +7447,7 @@
         <v>17</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -7449,7 +7455,7 @@
         <v>18</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -7457,7 +7463,7 @@
         <v>19</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -7466,7 +7472,7 @@
         <v>5</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -7475,7 +7481,7 @@
         <v>7</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -7483,7 +7489,7 @@
         <v>20</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -7492,7 +7498,7 @@
         <v>5</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -7501,7 +7507,7 @@
         <v>7</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -7510,7 +7516,7 @@
         <v>9</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -7519,7 +7525,7 @@
         <v>11</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -7527,7 +7533,7 @@
         <v>21</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -7535,7 +7541,7 @@
         <v>22</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -7562,79 +7568,79 @@
   <sheetData>
     <row r="3" spans="1:3" ht="18">
       <c r="A3" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18">
       <c r="A6" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>665</v>
+        <v>628</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>664</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="B8" s="26"/>
+        <v>629</v>
+      </c>
+      <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:3" ht="18">
       <c r="A9" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A11" s="20" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A12" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A13" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A14" s="20" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A15" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A16" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B16" s="2"/>
     </row>
@@ -7648,7 +7654,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -7656,7 +7662,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -7664,7 +7670,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -7672,7 +7678,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -7680,7 +7686,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -7688,7 +7694,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -7696,7 +7702,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -7704,7 +7710,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -7712,10 +7718,10 @@
         <v>9</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -7723,7 +7729,7 @@
         <v>10</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -7731,7 +7737,7 @@
         <v>11</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -7739,7 +7745,7 @@
         <v>12</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -7747,7 +7753,7 @@
         <v>13</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -7755,7 +7761,7 @@
         <v>14</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -7763,7 +7769,7 @@
         <v>15</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
   </sheetData>
@@ -7792,110 +7798,110 @@
   <sheetData>
     <row r="3" spans="1:3" ht="18">
       <c r="A3" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18">
       <c r="A6" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>662</v>
+        <v>628</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>661</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="B8" s="25"/>
+        <v>629</v>
+      </c>
+      <c r="B8" s="26"/>
     </row>
     <row r="9" spans="1:3" ht="18">
       <c r="A9" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>664</v>
+        <v>628</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>663</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="B11" s="25"/>
+        <v>629</v>
+      </c>
+      <c r="B11" s="26"/>
     </row>
     <row r="12" spans="1:3" ht="18">
       <c r="A12" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A14" s="20" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A15" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A16" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A17" s="20" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A18" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A19" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B19" s="2"/>
     </row>
@@ -7909,7 +7915,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -7917,7 +7923,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -7925,7 +7931,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -7933,7 +7939,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -7941,7 +7947,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -7949,7 +7955,7 @@
         <v>6</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -7957,7 +7963,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -7965,7 +7971,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -7973,7 +7979,7 @@
         <v>9</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -7981,7 +7987,7 @@
         <v>7</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -7989,7 +7995,7 @@
         <v>5</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -7997,7 +8003,7 @@
         <v>7</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -8005,7 +8011,7 @@
         <v>9</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -8013,7 +8019,7 @@
         <v>8</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -8021,7 +8027,7 @@
         <v>5</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -8029,7 +8035,7 @@
         <v>7</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -8037,7 +8043,7 @@
         <v>9</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -8045,7 +8051,7 @@
         <v>11</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -8053,7 +8059,7 @@
         <v>13</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -8061,7 +8067,7 @@
         <v>15</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -8069,7 +8075,7 @@
         <v>17</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -8077,7 +8083,7 @@
         <v>9</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -8085,7 +8091,7 @@
         <v>10</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -8093,7 +8099,7 @@
         <v>5</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -8104,7 +8110,7 @@
         <v>21</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -8115,7 +8121,7 @@
         <v>23</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -8123,7 +8129,7 @@
         <v>11</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -8131,7 +8137,7 @@
         <v>12</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -8139,7 +8145,7 @@
         <v>5</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -8147,7 +8153,7 @@
         <v>7</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -8155,7 +8161,7 @@
         <v>9</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -8163,7 +8169,7 @@
         <v>13</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -8171,7 +8177,7 @@
         <v>5</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -8180,7 +8186,7 @@
         <v>21</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -8189,16 +8195,16 @@
         <v>23</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="B56" s="3"/>
       <c r="C56" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -8206,7 +8212,7 @@
         <v>7</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -8214,7 +8220,7 @@
         <v>9</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -8222,7 +8228,7 @@
         <v>21</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -8230,7 +8236,7 @@
         <v>23</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="18">
@@ -8243,7 +8249,7 @@
         <v>1</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -8251,7 +8257,7 @@
         <v>2</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -8259,7 +8265,7 @@
         <v>5</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -8267,7 +8273,7 @@
         <v>3</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -8275,7 +8281,7 @@
         <v>4</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -8283,7 +8289,7 @@
         <v>5</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -8291,7 +8297,7 @@
         <v>7</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -8299,7 +8305,7 @@
         <v>9</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -8307,7 +8313,7 @@
         <v>11</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -8315,7 +8321,7 @@
         <v>13</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -8323,7 +8329,7 @@
         <v>15</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -8331,7 +8337,7 @@
         <v>17</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -8339,7 +8345,7 @@
         <v>19</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -8347,7 +8353,7 @@
         <v>5</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -8355,7 +8361,7 @@
         <v>6</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -8363,7 +8369,7 @@
         <v>5</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -8371,7 +8377,7 @@
         <v>7</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -8379,7 +8385,7 @@
         <v>9</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -8387,7 +8393,7 @@
         <v>11</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -8395,7 +8401,7 @@
         <v>13</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -8403,7 +8409,7 @@
         <v>15</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -8411,7 +8417,7 @@
         <v>17</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -8419,7 +8425,7 @@
         <v>19</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -8427,7 +8433,7 @@
         <v>21</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -8435,7 +8441,7 @@
         <v>23</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -8443,7 +8449,7 @@
         <v>7</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -8451,7 +8457,7 @@
         <v>8</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -8459,7 +8465,7 @@
         <v>5</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -8467,7 +8473,7 @@
         <v>7</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -8475,7 +8481,7 @@
         <v>9</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -8483,7 +8489,7 @@
         <v>11</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -8491,7 +8497,7 @@
         <v>13</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -8499,7 +8505,7 @@
         <v>15</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -8507,7 +8513,7 @@
         <v>9</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -8515,7 +8521,7 @@
         <v>10</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -8523,7 +8529,7 @@
         <v>11</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -8531,7 +8537,7 @@
         <v>12</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -8539,7 +8545,7 @@
         <v>13</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -8547,7 +8553,7 @@
         <v>14</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -8555,7 +8561,7 @@
         <v>15</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -8563,7 +8569,7 @@
         <v>16</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
   </sheetData>
@@ -8581,8 +8587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:R67"/>
   <sheetViews>
-    <sheetView zoomScale="169" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A16" zoomScale="169" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -8592,100 +8598,100 @@
   <sheetData>
     <row r="3" spans="1:3" ht="18">
       <c r="A3" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18">
       <c r="A6" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>661</v>
+        <v>628</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>660</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="B8" s="25"/>
+        <v>629</v>
+      </c>
+      <c r="B8" s="26"/>
     </row>
     <row r="9" spans="1:3" ht="18">
       <c r="A9" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A11" s="20" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A12" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>691</v>
+        <v>682</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A13" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>692</v>
+        <v>683</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A14" s="20" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A15" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>693</v>
+        <v>682</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A16" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>690</v>
+        <v>683</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18">
@@ -8898,48 +8904,48 @@
       </c>
     </row>
     <row r="45" spans="1:18">
-      <c r="A45" s="22">
+      <c r="A45" s="23">
         <v>8</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="24"/>
-      <c r="N45" s="24"/>
-      <c r="O45" s="24"/>
-      <c r="P45" s="24"/>
-      <c r="Q45" s="24"/>
-      <c r="R45" s="24"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="25"/>
+      <c r="O45" s="25"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="25"/>
+      <c r="R45" s="25"/>
     </row>
     <row r="46" spans="1:18">
-      <c r="A46" s="22"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="24"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="24"/>
-      <c r="Q46" s="24"/>
-      <c r="R46" s="24"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="25"/>
+      <c r="Q46" s="25"/>
+      <c r="R46" s="25"/>
     </row>
     <row r="47" spans="1:18">
       <c r="A47" s="3">
@@ -8974,48 +8980,48 @@
       </c>
     </row>
     <row r="51" spans="1:18">
-      <c r="A51" s="22">
+      <c r="A51" s="23">
         <v>13</v>
       </c>
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="24"/>
-      <c r="N51" s="24"/>
-      <c r="O51" s="24"/>
-      <c r="P51" s="24"/>
-      <c r="Q51" s="24"/>
-      <c r="R51" s="24"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="25"/>
+      <c r="R51" s="25"/>
     </row>
     <row r="52" spans="1:18">
-      <c r="A52" s="22"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="24"/>
-      <c r="M52" s="24"/>
-      <c r="N52" s="24"/>
-      <c r="O52" s="24"/>
-      <c r="P52" s="24"/>
-      <c r="Q52" s="24"/>
-      <c r="R52" s="24"/>
+      <c r="A52" s="23"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="25"/>
+      <c r="O52" s="25"/>
+      <c r="P52" s="25"/>
+      <c r="Q52" s="25"/>
+      <c r="R52" s="25"/>
     </row>
     <row r="53" spans="1:18" ht="17">
       <c r="A53" s="3">
@@ -9126,11 +9132,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A3:V64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A3:T54"/>
   <sheetViews>
-    <sheetView zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A20" zoomScale="179" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -9140,100 +9146,552 @@
   <sheetData>
     <row r="3" spans="1:3" ht="18">
       <c r="A3" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18">
       <c r="A6" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>660</v>
+        <v>628</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>659</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="B8" s="22"/>
+        <v>629</v>
+      </c>
+      <c r="B8" s="23"/>
     </row>
     <row r="9" spans="1:3" ht="18">
       <c r="A9" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A11" s="20" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A12" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>697</v>
+        <v>682</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A13" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>698</v>
+        <v>683</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A14" s="20" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A15" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>699</v>
+        <v>682</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A16" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>690</v>
+        <v>683</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18">
+      <c r="A17" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
+        <v>3</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
+        <v>4</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3">
+        <v>5</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3">
+        <v>6</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="18">
+      <c r="A35" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="3">
+        <v>1</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="3">
+        <v>2</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="3">
+        <v>3</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="3">
+        <v>4</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="3">
+        <v>5</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="3">
+        <v>6</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="3">
+        <v>7</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="A43" s="3">
+        <v>8</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="A44" s="3">
+        <v>9</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="A45" s="3">
+        <v>10</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="A46" s="3">
+        <v>11</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="A47" s="23">
+        <v>12</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="25"/>
+      <c r="R47" s="25"/>
+      <c r="S47" s="25"/>
+      <c r="T47" s="25"/>
+    </row>
+    <row r="48" spans="1:20">
+      <c r="A48" s="23"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="25"/>
+      <c r="P48" s="25"/>
+      <c r="Q48" s="25"/>
+      <c r="R48" s="25"/>
+      <c r="S48" s="25"/>
+      <c r="T48" s="25"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="3">
+        <v>13</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="3">
+        <v>14</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="3">
+        <v>15</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="3">
+        <v>16</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="3">
+        <v>17</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:T48"/>
+    <mergeCell ref="B7:B8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A3:V64"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" zoomScale="137" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" ht="18">
+      <c r="A3" s="4" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18">
+      <c r="A6" s="4" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>659</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B8" s="23"/>
+    </row>
+    <row r="9" spans="1:3" ht="18">
+      <c r="A9" s="4" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="4" customFormat="1" ht="18">
+      <c r="A11" s="20" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="4" customFormat="1" ht="18">
+      <c r="A12" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="4" customFormat="1" ht="18">
+      <c r="A13" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="4" customFormat="1" ht="18">
+      <c r="A14" s="20" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="4" customFormat="1" ht="18">
+      <c r="A15" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="4" customFormat="1" ht="18">
+      <c r="A16" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="18">
@@ -9242,56 +9700,56 @@
       </c>
     </row>
     <row r="18" spans="1:22" ht="13.75" customHeight="1">
-      <c r="A18" s="22">
+      <c r="A18" s="23">
         <v>1</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
     </row>
     <row r="19" spans="1:22">
-      <c r="A19" s="22"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="24"/>
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="3">
@@ -9662,466 +10120,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A3:T54"/>
-  <sheetViews>
-    <sheetView zoomScale="132" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:3" ht="18">
-      <c r="A3" s="4" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="18">
-      <c r="A6" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>660</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="B8" s="22"/>
-    </row>
-    <row r="9" spans="1:3" ht="18">
-      <c r="A9" s="4" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="4" customFormat="1" ht="18">
-      <c r="A11" s="20" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="4" customFormat="1" ht="18">
-      <c r="A12" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="4" customFormat="1" ht="18">
-      <c r="A13" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="4" customFormat="1" ht="18">
-      <c r="A14" s="20" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="4" customFormat="1" ht="18">
-      <c r="A15" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="4" customFormat="1" ht="18">
-      <c r="A16" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="18">
-      <c r="A17" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="3">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="3">
-        <v>2</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="3">
-        <v>3</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3">
-        <v>4</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3">
-        <v>5</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3">
-        <v>6</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3">
-        <v>7</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" ht="18">
-      <c r="A35" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" s="3">
-        <v>1</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" s="3">
-        <v>2</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20">
-      <c r="A38" s="3">
-        <v>3</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20">
-      <c r="A39" s="3">
-        <v>4</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20">
-      <c r="A40" s="3">
-        <v>5</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20">
-      <c r="A41" s="3">
-        <v>6</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20">
-      <c r="A42" s="3">
-        <v>7</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20">
-      <c r="A43" s="3">
-        <v>8</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20">
-      <c r="A44" s="3">
-        <v>9</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20">
-      <c r="A45" s="3">
-        <v>10</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20">
-      <c r="A46" s="3">
-        <v>11</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20">
-      <c r="A47" s="22">
-        <v>12</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="24"/>
-      <c r="P47" s="24"/>
-      <c r="Q47" s="24"/>
-      <c r="R47" s="24"/>
-      <c r="S47" s="24"/>
-      <c r="T47" s="24"/>
-    </row>
-    <row r="48" spans="1:20">
-      <c r="A48" s="22"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="24"/>
-      <c r="N48" s="24"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="24"/>
-      <c r="Q48" s="24"/>
-      <c r="R48" s="24"/>
-      <c r="S48" s="24"/>
-      <c r="T48" s="24"/>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="3">
-        <v>13</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="3">
-        <v>14</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="3">
-        <v>15</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="3">
-        <v>16</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="3">
-        <v>17</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:T48"/>
-    <mergeCell ref="B7:B8"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A3:AI71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScale="162" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -10134,100 +10138,100 @@
   <sheetData>
     <row r="3" spans="1:3" ht="18">
       <c r="A3" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18">
       <c r="A6" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>660</v>
+        <v>628</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>659</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="B8" s="25"/>
+        <v>629</v>
+      </c>
+      <c r="B8" s="26"/>
     </row>
     <row r="9" spans="1:3" ht="18">
       <c r="A9" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A11" s="20" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A12" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>700</v>
+        <v>682</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A13" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>701</v>
+        <v>683</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A14" s="20" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A15" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>702</v>
+        <v>682</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A16" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>703</v>
+        <v>683</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="18">
@@ -10305,7 +10309,7 @@
         <v>175</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>176</v>
+        <v>760</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -10346,7 +10350,7 @@
         <v>5</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AI28" s="13"/>
     </row>
@@ -10356,7 +10360,7 @@
         <v>7</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AI29" s="13"/>
     </row>
@@ -10367,7 +10371,7 @@
         <v>21</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AI30" s="13"/>
     </row>
@@ -10378,7 +10382,7 @@
         <v>23</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AI31" s="13"/>
     </row>
@@ -10386,10 +10390,10 @@
       <c r="B32" s="12"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="AI32" s="13"/>
     </row>
@@ -10397,10 +10401,10 @@
       <c r="B33" s="12"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="AI33" s="13"/>
     </row>
@@ -10408,10 +10412,10 @@
       <c r="B34" s="12"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="AI34" s="13"/>
     </row>
@@ -10421,7 +10425,7 @@
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AI35" s="13"/>
     </row>
@@ -10429,7 +10433,7 @@
       <c r="B36" s="12"/>
       <c r="C36" s="3"/>
       <c r="D36" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AI36" s="13"/>
     </row>
@@ -10440,7 +10444,7 @@
         <v>21</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AI37" s="13"/>
     </row>
@@ -10449,10 +10453,10 @@
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="AI38" s="13"/>
     </row>
@@ -10461,10 +10465,10 @@
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AI39" s="13"/>
     </row>
@@ -10473,10 +10477,10 @@
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AI40" s="13"/>
     </row>
@@ -10485,10 +10489,10 @@
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AI41" s="13"/>
     </row>
@@ -10499,7 +10503,7 @@
         <v>23</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AI42" s="13"/>
     </row>
@@ -10509,7 +10513,7 @@
         <v>11</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AI43" s="13"/>
     </row>
@@ -10519,7 +10523,7 @@
         <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AI44" s="13"/>
     </row>
@@ -10530,7 +10534,7 @@
         <v>21</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AI45" s="13"/>
     </row>
@@ -10541,7 +10545,7 @@
         <v>23</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AI46" s="13"/>
     </row>
@@ -10551,7 +10555,7 @@
         <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AI47" s="13"/>
     </row>
@@ -10562,7 +10566,7 @@
         <v>21</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AI48" s="13"/>
     </row>
@@ -10573,7 +10577,7 @@
         <v>23</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AI49" s="13"/>
     </row>
@@ -10581,19 +10585,19 @@
       <c r="B50" s="12"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AI50" s="13"/>
     </row>
     <row r="51" spans="1:35">
       <c r="B51" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="AI51" s="13"/>
     </row>
@@ -10603,7 +10607,7 @@
         <v>5</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AI52" s="13"/>
     </row>
@@ -10613,7 +10617,7 @@
         <v>7</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
@@ -10657,7 +10661,7 @@
         <v>1</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58" spans="1:35" ht="17">
@@ -10665,7 +10669,7 @@
         <v>2</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="59" spans="1:35" ht="17">
@@ -10673,7 +10677,7 @@
         <v>3</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="60" spans="1:35">
@@ -10681,7 +10685,7 @@
         <v>4</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="61" spans="1:35">
@@ -10689,7 +10693,7 @@
         <v>5</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="62" spans="1:35" ht="17">
@@ -10697,7 +10701,7 @@
         <v>6</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="63" spans="1:35">
@@ -10705,7 +10709,7 @@
         <v>7</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="64" spans="1:35">
@@ -10713,7 +10717,7 @@
         <v>8</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -10721,7 +10725,7 @@
         <v>9</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17">
@@ -10729,7 +10733,7 @@
         <v>10</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -10738,7 +10742,7 @@
         <v>5</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -10747,7 +10751,7 @@
         <v>7</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -10755,7 +10759,7 @@
         <v>11</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17">
@@ -10763,7 +10767,7 @@
         <v>12</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17">
@@ -10771,7 +10775,7 @@
         <v>13</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -10787,8 +10791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A3:D42"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScale="180" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -10800,100 +10804,100 @@
   <sheetData>
     <row r="3" spans="1:3" ht="18">
       <c r="A3" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18">
       <c r="A6" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>663</v>
+        <v>628</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>662</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="B8" s="26"/>
+        <v>629</v>
+      </c>
+      <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:3" ht="18">
       <c r="A9" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A11" s="20" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A12" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>704</v>
+        <v>682</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A13" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>705</v>
+        <v>683</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A14" s="20" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A15" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>706</v>
+        <v>682</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A16" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>707</v>
+        <v>683</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18">
@@ -10906,7 +10910,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -10914,7 +10918,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -10922,7 +10926,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -10930,7 +10934,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -10939,7 +10943,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -10948,7 +10952,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -10957,7 +10961,7 @@
         <v>21</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -10966,7 +10970,7 @@
         <v>23</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -10975,7 +10979,7 @@
         <v>9</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -10983,7 +10987,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -10991,7 +10995,7 @@
         <v>6</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -10999,7 +11003,7 @@
         <v>7</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="18">
@@ -11012,7 +11016,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -11020,7 +11024,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -11028,7 +11032,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -11036,7 +11040,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -11044,7 +11048,7 @@
         <v>5</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -11052,7 +11056,7 @@
         <v>6</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -11060,7 +11064,7 @@
         <v>7</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -11068,7 +11072,7 @@
         <v>8</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -11076,7 +11080,7 @@
         <v>9</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -11084,7 +11088,7 @@
         <v>10</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -11092,7 +11096,7 @@
         <v>11</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -11108,8 +11112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A3:E59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A8" zoomScale="134" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -11119,100 +11123,100 @@
   <sheetData>
     <row r="3" spans="1:3" ht="18">
       <c r="A3" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18">
       <c r="A6" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>662</v>
+        <v>628</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>661</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="B8" s="25"/>
+        <v>629</v>
+      </c>
+      <c r="B8" s="26"/>
     </row>
     <row r="9" spans="1:3" ht="18">
       <c r="A9" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A11" s="20" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A12" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>708</v>
+        <v>682</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A13" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>709</v>
+        <v>683</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A14" s="20" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A15" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>710</v>
+        <v>682</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A16" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>707</v>
+        <v>683</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18">
@@ -11225,7 +11229,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -11233,7 +11237,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -11241,7 +11245,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -11249,7 +11253,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -11257,7 +11261,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -11266,7 +11270,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -11276,7 +11280,7 @@
         <v>21</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -11286,17 +11290,17 @@
         <v>23</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -11305,7 +11309,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -11314,7 +11318,7 @@
         <v>9</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -11324,7 +11328,7 @@
         <v>21</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -11332,10 +11336,10 @@
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -11343,10 +11347,10 @@
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -11356,7 +11360,7 @@
         <v>23</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -11364,20 +11368,20 @@
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -11385,17 +11389,17 @@
         <v>6</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="B36" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="B37" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="18">
@@ -11408,7 +11412,7 @@
         <v>1</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -11416,7 +11420,7 @@
         <v>2</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -11424,7 +11428,7 @@
         <v>3</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -11432,7 +11436,7 @@
         <v>4</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -11440,7 +11444,7 @@
         <v>5</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -11448,7 +11452,7 @@
         <v>6</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -11456,7 +11460,7 @@
         <v>7</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -11464,7 +11468,7 @@
         <v>8</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -11472,7 +11476,7 @@
         <v>9</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -11481,7 +11485,7 @@
         <v>5</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -11490,7 +11494,7 @@
         <v>7</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -11499,7 +11503,7 @@
         <v>9</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -11508,7 +11512,7 @@
         <v>11</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -11517,7 +11521,7 @@
         <v>13</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -11526,7 +11530,7 @@
         <v>15</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -11535,7 +11539,7 @@
         <v>17</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -11543,7 +11547,7 @@
         <v>10</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -11551,7 +11555,7 @@
         <v>11</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -11559,7 +11563,7 @@
         <v>12</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -11567,7 +11571,7 @@
         <v>13</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -11583,7 +11587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A3:D80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="142" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -11594,100 +11598,100 @@
   <sheetData>
     <row r="3" spans="1:3" ht="18">
       <c r="A3" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18">
       <c r="A6" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>662</v>
+        <v>628</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>661</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="B8" s="25"/>
+        <v>629</v>
+      </c>
+      <c r="B8" s="26"/>
     </row>
     <row r="9" spans="1:3" ht="18">
       <c r="A9" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A11" s="20" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A12" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>711</v>
+        <v>682</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A13" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>712</v>
+        <v>683</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A14" s="20" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A15" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>702</v>
+        <v>682</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A16" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>707</v>
+        <v>683</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18">
@@ -11700,7 +11704,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -11708,7 +11712,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -11717,7 +11721,7 @@
         <v>5</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -11727,7 +11731,7 @@
         <v>21</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -11737,17 +11741,17 @@
         <v>23</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -11756,67 +11760,67 @@
         <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -11824,7 +11828,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -11833,7 +11837,7 @@
         <v>5</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -11843,7 +11847,7 @@
         <v>21</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -11853,47 +11857,47 @@
         <v>23</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -11902,7 +11906,7 @@
         <v>7</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -11912,7 +11916,7 @@
         <v>21</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -11922,17 +11926,17 @@
         <v>23</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -11941,7 +11945,7 @@
         <v>9</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -11950,7 +11954,7 @@
         <v>11</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -11960,7 +11964,7 @@
         <v>21</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -11970,52 +11974,52 @@
         <v>23</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="3"/>
       <c r="C47" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="3"/>
       <c r="C48" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="3"/>
       <c r="C49" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="3"/>
       <c r="B50" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="3"/>
       <c r="B51" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="3"/>
       <c r="B52" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -12023,7 +12027,7 @@
         <v>4</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -12031,7 +12035,7 @@
         <v>5</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -12039,7 +12043,7 @@
         <v>6</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -12047,7 +12051,7 @@
         <v>7</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="18">
@@ -12060,7 +12064,7 @@
         <v>1</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -12068,7 +12072,7 @@
         <v>2</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -12076,7 +12080,7 @@
         <v>3</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -12084,7 +12088,7 @@
         <v>4</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -12092,7 +12096,7 @@
         <v>5</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -12100,7 +12104,7 @@
         <v>6</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17">
@@ -12108,7 +12112,7 @@
         <v>7</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -12116,7 +12120,7 @@
         <v>8</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -12124,7 +12128,7 @@
         <v>9</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -12132,7 +12136,7 @@
         <v>10</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -12140,7 +12144,7 @@
         <v>11</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -12148,7 +12152,7 @@
         <v>12</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -12156,7 +12160,7 @@
         <v>13</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -12164,7 +12168,7 @@
         <v>14</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -12172,7 +12176,7 @@
         <v>15</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -12180,7 +12184,7 @@
         <v>16</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -12188,7 +12192,7 @@
         <v>17</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -12197,7 +12201,7 @@
         <v>5</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -12206,7 +12210,7 @@
         <v>7</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -12214,7 +12218,7 @@
         <v>18</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17">
@@ -12222,7 +12226,7 @@
         <v>19</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17">
@@ -12230,7 +12234,7 @@
         <v>20</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -12246,8 +12250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A3:C53"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A2" zoomScale="134" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -12257,101 +12261,101 @@
   <sheetData>
     <row r="3" spans="1:3" ht="18">
       <c r="A3" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18">
       <c r="A6" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>662</v>
+        <v>628</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>661</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="B8" s="25"/>
+        <v>629</v>
+      </c>
+      <c r="B8" s="26"/>
     </row>
     <row r="9" spans="1:3" ht="18">
       <c r="A9" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B9" s="19"/>
     </row>
     <row r="10" spans="1:3" ht="15">
       <c r="A10" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A11" s="20" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A12" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>713</v>
+        <v>682</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A13" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>714</v>
+        <v>683</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A14" s="20" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A15" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>715</v>
+        <v>682</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="4" customFormat="1" ht="18">
       <c r="A16" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>716</v>
+        <v>683</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18">
@@ -12364,7 +12368,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17">
@@ -12372,7 +12376,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -12380,7 +12384,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18">
@@ -12390,7 +12394,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -12398,7 +12402,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -12406,7 +12410,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -12414,12 +12418,12 @@
         <v>3</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -12427,7 +12431,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -12435,7 +12439,7 @@
         <v>5</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -12443,7 +12447,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -12451,7 +12455,7 @@
         <v>7</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -12459,7 +12463,7 @@
         <v>8</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -12468,7 +12472,7 @@
         <v>5</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -12477,7 +12481,7 @@
         <v>7</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -12486,7 +12490,7 @@
         <v>9</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -12494,7 +12498,7 @@
         <v>9</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -12502,7 +12506,7 @@
         <v>10</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -12510,12 +12514,12 @@
         <v>11</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -12523,7 +12527,7 @@
         <v>12</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -12531,7 +12535,7 @@
         <v>13</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -12539,12 +12543,12 @@
         <v>14</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -12552,7 +12556,7 @@
         <v>15</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -12560,7 +12564,7 @@
         <v>16</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -12568,7 +12572,7 @@
         <v>17</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -12576,7 +12580,7 @@
         <v>18</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -12584,7 +12588,7 @@
         <v>19</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -12592,7 +12596,7 @@
         <v>20</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -12600,7 +12604,7 @@
         <v>21</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -12608,7 +12612,7 @@
         <v>22</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -12616,7 +12620,7 @@
         <v>23</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -12624,7 +12628,7 @@
         <v>24</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
